--- a/biology/Botanique/Tillandsia_bradeana/Tillandsia_bradeana.xlsx
+++ b/biology/Botanique/Tillandsia_bradeana/Tillandsia_bradeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia bradeana  est une espèce de plante de la famille des Bromeliaceae, endémique du Costa Rica. L'épithète bradeana est une dédicace à Mr Bradea, botaniste de San José au Costa Rica, zone où a été découverte la plante.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia bradeana Mez &amp; Tonduz ex Mez, in Repert. Spec. Nov. Regni Veg. 14: 252 (1916)
-Diagnose originale[1]
+Diagnose originale
 « Statura media; foliis utriculatim rosulatis, lepidibus minutis appressis dense conspersis in statu vivo bene viridibus; scapo brevissimo inconspicuoque foliis omnino iis rosulae congruis sed longius vaginatis celato; inflorescentia pauciflora, aliquid obscure densissime 2-pinnatim panniculata[sic] nullo modo strobiliformi; spicis brevissimis, sessilibus, 1-3-floris, dense flabellatis, in bractearum primariarum omnino foliis rosulae scapique isomorpharum itemque longissime laminatarum axillis plane absconditis; bracteolis florigeris evidenter distichis, glabris laevibusque, quam sepala brevioribus; floribus erectis; sepalis binis posticis ad 1/4 longit, connatis. »
 Type
-leg. Wercklé n° 37, 16414 ; "Costa Rica prope San José » [1].</t>
+leg. Wercklé n° 37, 16414 ; "Costa Rica prope San José » .</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tillandsia brachycaulos Schldt[2],[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia brachycaulos Schldt,.</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia bradeana est une plante herbacée en rosette aculle monocarpique vivace par ses rejets latéraux.
 </t>
@@ -606,9 +624,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du Costa Rica[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Costa Rica.
 </t>
         </is>
       </c>
